--- a/data/apps-master/1994.xlsx
+++ b/data/apps-master/1994.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisowen/Desktop/tranmere-web/data/apps-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18711EB8-F9AC-4B4C-A1EF-16C011C41391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4D2E55-1035-B04A-869F-90A1005C0914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3841" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3844" uniqueCount="141">
   <si>
     <t>Date</t>
   </si>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2027,7 +2027,7 @@
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2042,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3293,8 +3293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4533,6 +4533,9 @@
       </c>
       <c r="F60">
         <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -5946,8 +5949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27:H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7192,7 +7195,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8405,6 +8408,9 @@
       </c>
       <c r="F59">
         <v>3</v>
+      </c>
+      <c r="G59" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -9675,8 +9681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10923,7 +10929,7 @@
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F60">
         <v>5</v>
@@ -10939,7 +10945,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:G66"/>
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12171,7 +12177,7 @@
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F60">
         <v>6</v>
@@ -12187,7 +12193,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57:E60"/>
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13411,7 +13417,7 @@
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F59">
         <v>7</v>
@@ -13431,7 +13437,7 @@
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F60">
         <v>7</v>
@@ -13446,8 +13452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14692,7 +14698,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15941,6 +15947,9 @@
       <c r="F60">
         <v>9</v>
       </c>
+      <c r="G60" t="s">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/apps-master/1994.xlsx
+++ b/data/apps-master/1994.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisowen/Desktop/tranmere-web/data/apps-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4D2E55-1035-B04A-869F-90A1005C0914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E97B60C-4A14-674E-9AFF-7D84CEE969F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3844" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3844" uniqueCount="140">
   <si>
     <t>Date</t>
   </si>
@@ -444,9 +444,6 @@
     <t>Mike Edwards</t>
   </si>
   <si>
-    <t>John MCGreal</t>
-  </si>
-  <si>
     <t>Ian Thomas Moore</t>
   </si>
   <si>
@@ -2223,7 +2220,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -2569,7 +2566,7 @@
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -3293,7 +3290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
@@ -4452,7 +4449,7 @@
         <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -9681,8 +9678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9828,7 +9825,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -9877,7 +9874,7 @@
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
